--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,246 +534,246 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>43.7420334958991</v>
+        <v>0.6105403333333334</v>
       </c>
       <c r="N2">
-        <v>43.7420334958991</v>
+        <v>1.831621</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01188380198875054</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01188380198875054</v>
       </c>
       <c r="Q2">
-        <v>3388.399215164161</v>
+        <v>65.25368976128321</v>
       </c>
       <c r="R2">
-        <v>3388.399215164161</v>
+        <v>587.2832078515489</v>
       </c>
       <c r="S2">
-        <v>0.1186672908611009</v>
+        <v>0.001792966608253231</v>
       </c>
       <c r="T2">
-        <v>0.1186672908611009</v>
+        <v>0.001792966608253231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>43.7420334958991</v>
+        <v>1.062512666666667</v>
       </c>
       <c r="N3">
-        <v>43.7420334958991</v>
+        <v>3.187538</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02068117281010531</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02068117281010532</v>
       </c>
       <c r="Q3">
-        <v>3366.832434978673</v>
+        <v>113.5598553163024</v>
       </c>
       <c r="R3">
-        <v>3366.832434978673</v>
+        <v>1022.038697846722</v>
       </c>
       <c r="S3">
-        <v>0.1179119868916763</v>
+        <v>0.003120268437923723</v>
       </c>
       <c r="T3">
-        <v>0.1179119868916763</v>
+        <v>0.003120268437923723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>121.711490137238</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>121.711490137238</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.186451981700417</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.186451981700417</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>43.7420334958991</v>
+        <v>2.133338666666666</v>
       </c>
       <c r="N4">
-        <v>43.7420334958991</v>
+        <v>6.400016</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.04152415967541061</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04152415967541061</v>
       </c>
       <c r="Q4">
-        <v>5323.908078418857</v>
+        <v>228.0082279747004</v>
       </c>
       <c r="R4">
-        <v>5323.908078418857</v>
+        <v>2052.074051772304</v>
       </c>
       <c r="S4">
-        <v>0.186451981700417</v>
+        <v>0.006264950543964286</v>
       </c>
       <c r="T4">
-        <v>0.186451981700417</v>
+        <v>0.006264950543964286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.36676684056</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>140.36676684056</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.2150303296163119</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.2150303296163119</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>43.7420334958991</v>
+        <v>1.278161666666667</v>
       </c>
       <c r="N5">
-        <v>43.7420334958991</v>
+        <v>3.834485</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.02487865146164742</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.02487865146164742</v>
       </c>
       <c r="Q5">
-        <v>6139.927816850834</v>
+        <v>136.6081162993294</v>
       </c>
       <c r="R5">
-        <v>6139.927816850834</v>
+        <v>1229.473046693965</v>
       </c>
       <c r="S5">
-        <v>0.2150303296163119</v>
+        <v>0.003753562317121222</v>
       </c>
       <c r="T5">
-        <v>0.2150303296163119</v>
+        <v>0.003753562317121222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,114 +785,1602 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.159493575321</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H6">
-        <v>194.159493575321</v>
+        <v>320.635769</v>
       </c>
       <c r="I6">
-        <v>0.2974363579169756</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J6">
-        <v>0.2974363579169756</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.7420334958991</v>
+        <v>46.29128866666667</v>
       </c>
       <c r="N6">
-        <v>43.7420334958991</v>
+        <v>138.873866</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9010322140640862</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9010322140640862</v>
       </c>
       <c r="Q6">
-        <v>8492.931071518497</v>
+        <v>4947.547646545883</v>
       </c>
       <c r="R6">
-        <v>8492.931071518497</v>
+        <v>44527.92881891295</v>
       </c>
       <c r="S6">
-        <v>0.2974363579169756</v>
+        <v>0.1359430823827821</v>
       </c>
       <c r="T6">
-        <v>0.2974363579169756</v>
+        <v>0.1359430823827821</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>77.232923</v>
+      </c>
+      <c r="H7">
+        <v>231.698769</v>
+      </c>
+      <c r="I7">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="J7">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.6105403333333334</v>
+      </c>
+      <c r="N7">
+        <v>1.831621</v>
+      </c>
+      <c r="O7">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="P7">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="Q7">
+        <v>47.15381455272767</v>
+      </c>
+      <c r="R7">
+        <v>424.384330974549</v>
+      </c>
+      <c r="S7">
+        <v>0.001295638840563602</v>
+      </c>
+      <c r="T7">
+        <v>0.001295638840563602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>77.232923</v>
+      </c>
+      <c r="H8">
+        <v>231.698769</v>
+      </c>
+      <c r="I8">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="J8">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.062512666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.187538</v>
+      </c>
+      <c r="O8">
+        <v>0.02068117281010531</v>
+      </c>
+      <c r="P8">
+        <v>0.02068117281010532</v>
+      </c>
+      <c r="Q8">
+        <v>82.06095897119133</v>
+      </c>
+      <c r="R8">
+        <v>738.548630740722</v>
+      </c>
+      <c r="S8">
+        <v>0.002254777619699939</v>
+      </c>
+      <c r="T8">
+        <v>0.00225477761969994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>77.232923</v>
+      </c>
+      <c r="H9">
+        <v>231.698769</v>
+      </c>
+      <c r="I9">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="J9">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>2.133338666666666</v>
+      </c>
+      <c r="N9">
+        <v>6.400016</v>
+      </c>
+      <c r="O9">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="P9">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="Q9">
+        <v>164.7639809755893</v>
+      </c>
+      <c r="R9">
+        <v>1482.875828780304</v>
+      </c>
+      <c r="S9">
+        <v>0.004527197116558775</v>
+      </c>
+      <c r="T9">
+        <v>0.004527197116558776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>77.232923</v>
+      </c>
+      <c r="H10">
+        <v>231.698769</v>
+      </c>
+      <c r="I10">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="J10">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.278161666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.834485</v>
+      </c>
+      <c r="O10">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="P10">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="Q10">
+        <v>98.71616158321834</v>
+      </c>
+      <c r="R10">
+        <v>888.445454248965</v>
+      </c>
+      <c r="S10">
+        <v>0.002712410318269185</v>
+      </c>
+      <c r="T10">
+        <v>0.002712410318269185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>77.232923</v>
+      </c>
+      <c r="H11">
+        <v>231.698769</v>
+      </c>
+      <c r="I11">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="J11">
+        <v>0.1090256166999485</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.29128866666667</v>
+      </c>
+      <c r="N11">
+        <v>138.873866</v>
+      </c>
+      <c r="O11">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="P11">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="Q11">
+        <v>3575.21153316344</v>
+      </c>
+      <c r="R11">
+        <v>32176.90379847095</v>
+      </c>
+      <c r="S11">
+        <v>0.09823559280485701</v>
+      </c>
+      <c r="T11">
+        <v>0.09823559280485702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>136.676337</v>
+      </c>
+      <c r="H12">
+        <v>410.029011</v>
+      </c>
+      <c r="I12">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J12">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.6105403333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.831621</v>
+      </c>
+      <c r="O12">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="P12">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="Q12">
+        <v>83.44641635075901</v>
+      </c>
+      <c r="R12">
+        <v>751.017747156831</v>
+      </c>
+      <c r="S12">
+        <v>0.002292845640494018</v>
+      </c>
+      <c r="T12">
+        <v>0.002292845640494018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>136.676337</v>
+      </c>
+      <c r="H13">
+        <v>410.029011</v>
+      </c>
+      <c r="I13">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J13">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.062512666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.187538</v>
+      </c>
+      <c r="O13">
+        <v>0.02068117281010531</v>
+      </c>
+      <c r="P13">
+        <v>0.02068117281010532</v>
+      </c>
+      <c r="Q13">
+        <v>145.220339296102</v>
+      </c>
+      <c r="R13">
+        <v>1306.983053664918</v>
+      </c>
+      <c r="S13">
+        <v>0.003990199177236458</v>
+      </c>
+      <c r="T13">
+        <v>0.003990199177236459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>136.676337</v>
+      </c>
+      <c r="H14">
+        <v>410.029011</v>
+      </c>
+      <c r="I14">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J14">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>2.133338666666666</v>
+      </c>
+      <c r="N14">
+        <v>6.400016</v>
+      </c>
+      <c r="O14">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="P14">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="Q14">
+        <v>291.576914540464</v>
+      </c>
+      <c r="R14">
+        <v>2624.192230864176</v>
+      </c>
+      <c r="S14">
+        <v>0.008011618552469076</v>
+      </c>
+      <c r="T14">
+        <v>0.008011618552469076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>136.676337</v>
+      </c>
+      <c r="H15">
+        <v>410.029011</v>
+      </c>
+      <c r="I15">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J15">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.278161666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.834485</v>
+      </c>
+      <c r="O15">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="P15">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="Q15">
+        <v>174.694454693815</v>
+      </c>
+      <c r="R15">
+        <v>1572.250092244335</v>
+      </c>
+      <c r="S15">
+        <v>0.004800055369418512</v>
+      </c>
+      <c r="T15">
+        <v>0.004800055369418512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>136.676337</v>
+      </c>
+      <c r="H16">
+        <v>410.029011</v>
+      </c>
+      <c r="I16">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="J16">
+        <v>0.1929387280825172</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>46.29128866666667</v>
+      </c>
+      <c r="N16">
+        <v>138.873866</v>
+      </c>
+      <c r="O16">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="P16">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="Q16">
+        <v>6326.923769969615</v>
+      </c>
+      <c r="R16">
+        <v>56942.31392972653</v>
+      </c>
+      <c r="S16">
+        <v>0.1738440093428992</v>
+      </c>
+      <c r="T16">
+        <v>0.1738440093428992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H17">
+        <v>430.367156</v>
+      </c>
+      <c r="I17">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J17">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.6105403333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.831621</v>
+      </c>
+      <c r="O17">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="P17">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="Q17">
+        <v>87.58550229331955</v>
+      </c>
+      <c r="R17">
+        <v>788.269520639876</v>
+      </c>
+      <c r="S17">
+        <v>0.002406574732455721</v>
+      </c>
+      <c r="T17">
+        <v>0.002406574732455721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H18">
+        <v>430.367156</v>
+      </c>
+      <c r="I18">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J18">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.062512666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.187538</v>
+      </c>
+      <c r="O18">
+        <v>0.02068117281010531</v>
+      </c>
+      <c r="P18">
+        <v>0.02068117281010532</v>
+      </c>
+      <c r="Q18">
+        <v>152.4235181891031</v>
+      </c>
+      <c r="R18">
+        <v>1371.811663701928</v>
+      </c>
+      <c r="S18">
+        <v>0.004188119927398977</v>
+      </c>
+      <c r="T18">
+        <v>0.004188119927398978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H19">
+        <v>430.367156</v>
+      </c>
+      <c r="I19">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J19">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>2.133338666666666</v>
+      </c>
+      <c r="N19">
+        <v>6.400016</v>
+      </c>
+      <c r="O19">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="P19">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="Q19">
+        <v>306.0396315860551</v>
+      </c>
+      <c r="R19">
+        <v>2754.356684274496</v>
+      </c>
+      <c r="S19">
+        <v>0.008409008628374718</v>
+      </c>
+      <c r="T19">
+        <v>0.008409008628374718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H20">
+        <v>430.367156</v>
+      </c>
+      <c r="I20">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J20">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>1.278161666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.834485</v>
+      </c>
+      <c r="O20">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="P20">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="Q20">
+        <v>183.3596004638511</v>
+      </c>
+      <c r="R20">
+        <v>1650.23640417466</v>
+      </c>
+      <c r="S20">
+        <v>0.005038146381254895</v>
+      </c>
+      <c r="T20">
+        <v>0.005038146381254895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>143.4557186666667</v>
+      </c>
+      <c r="H21">
+        <v>430.367156</v>
+      </c>
+      <c r="I21">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="J21">
+        <v>0.2025088212285795</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>46.29128866666667</v>
+      </c>
+      <c r="N21">
+        <v>138.873866</v>
+      </c>
+      <c r="O21">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="P21">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="Q21">
+        <v>6640.750083682788</v>
+      </c>
+      <c r="R21">
+        <v>59766.75075314509</v>
+      </c>
+      <c r="S21">
+        <v>0.1824669715590952</v>
+      </c>
+      <c r="T21">
+        <v>0.1824669715590952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H22">
+        <v>595.794632</v>
+      </c>
+      <c r="I22">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J22">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.6105403333333334</v>
+      </c>
+      <c r="N22">
+        <v>1.831621</v>
+      </c>
+      <c r="O22">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="P22">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="Q22">
+        <v>121.2522177398302</v>
+      </c>
+      <c r="R22">
+        <v>1091.269959658472</v>
+      </c>
+      <c r="S22">
+        <v>0.003331630416294952</v>
+      </c>
+      <c r="T22">
+        <v>0.003331630416294952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H23">
+        <v>595.794632</v>
+      </c>
+      <c r="I23">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J23">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>1.062512666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.187538</v>
+      </c>
+      <c r="O23">
+        <v>0.02068117281010531</v>
+      </c>
+      <c r="P23">
+        <v>0.02068117281010532</v>
+      </c>
+      <c r="Q23">
+        <v>211.0131144106684</v>
+      </c>
+      <c r="R23">
+        <v>1899.118029696016</v>
+      </c>
+      <c r="S23">
+        <v>0.005797978159180298</v>
+      </c>
+      <c r="T23">
+        <v>0.005797978159180299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H24">
+        <v>595.794632</v>
+      </c>
+      <c r="I24">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J24">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>2.133338666666666</v>
+      </c>
+      <c r="N24">
+        <v>6.400016</v>
+      </c>
+      <c r="O24">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="P24">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="Q24">
+        <v>423.6772419460124</v>
+      </c>
+      <c r="R24">
+        <v>3813.095177514112</v>
+      </c>
+      <c r="S24">
+        <v>0.01164132097763367</v>
+      </c>
+      <c r="T24">
+        <v>0.01164132097763367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H25">
+        <v>595.794632</v>
+      </c>
+      <c r="I25">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J25">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>1.278161666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.834485</v>
+      </c>
+      <c r="O25">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="P25">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="Q25">
+        <v>253.8406199427244</v>
+      </c>
+      <c r="R25">
+        <v>2284.56557948452</v>
+      </c>
+      <c r="S25">
+        <v>0.006974743605159991</v>
+      </c>
+      <c r="T25">
+        <v>0.006974743605159991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>198.5982106666667</v>
+      </c>
+      <c r="H26">
+        <v>595.794632</v>
+      </c>
+      <c r="I26">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="J26">
+        <v>0.2803505493821544</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>46.29128866666667</v>
+      </c>
+      <c r="N26">
+        <v>138.873866</v>
+      </c>
+      <c r="O26">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="P26">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="Q26">
+        <v>9193.367098654146</v>
+      </c>
+      <c r="R26">
+        <v>82740.3038878873</v>
+      </c>
+      <c r="S26">
+        <v>0.2526048762238855</v>
+      </c>
+      <c r="T26">
+        <v>0.2526048762238855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H27">
+        <v>136.651993</v>
+      </c>
+      <c r="I27">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J27">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.6105403333333334</v>
+      </c>
+      <c r="N27">
+        <v>1.831621</v>
+      </c>
+      <c r="O27">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="P27">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="Q27">
+        <v>27.81051778562811</v>
+      </c>
+      <c r="R27">
+        <v>250.294660070653</v>
+      </c>
+      <c r="S27">
+        <v>0.000764145750689014</v>
+      </c>
+      <c r="T27">
+        <v>0.000764145750689014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H28">
+        <v>136.651993</v>
+      </c>
+      <c r="I28">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J28">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.062512666666667</v>
+      </c>
+      <c r="N28">
+        <v>3.187538</v>
+      </c>
+      <c r="O28">
+        <v>0.02068117281010531</v>
+      </c>
+      <c r="P28">
+        <v>0.02068117281010532</v>
+      </c>
+      <c r="Q28">
+        <v>48.39815782924823</v>
+      </c>
+      <c r="R28">
+        <v>435.583420463234</v>
+      </c>
+      <c r="S28">
+        <v>0.001329829488665918</v>
+      </c>
+      <c r="T28">
+        <v>0.001329829488665919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H29">
+        <v>136.651993</v>
+      </c>
+      <c r="I29">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J29">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>2.133338666666666</v>
+      </c>
+      <c r="N29">
+        <v>6.400016</v>
+      </c>
+      <c r="O29">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="P29">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="Q29">
+        <v>97.17499351465422</v>
+      </c>
+      <c r="R29">
+        <v>874.574941631888</v>
+      </c>
+      <c r="S29">
+        <v>0.002670063856410087</v>
+      </c>
+      <c r="T29">
+        <v>0.002670063856410087</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H30">
+        <v>136.651993</v>
+      </c>
+      <c r="I30">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J30">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>1.278161666666667</v>
+      </c>
+      <c r="N30">
+        <v>3.834485</v>
+      </c>
+      <c r="O30">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="P30">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="Q30">
+        <v>58.22111304206722</v>
+      </c>
+      <c r="R30">
+        <v>523.990017378605</v>
+      </c>
+      <c r="S30">
+        <v>0.001599733470423611</v>
+      </c>
+      <c r="T30">
+        <v>0.001599733470423611</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="H7">
-        <v>42.1054306722281</v>
-      </c>
-      <c r="I7">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="J7">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>43.7420334958991</v>
-      </c>
-      <c r="N7">
-        <v>43.7420334958991</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1841.777158823859</v>
-      </c>
-      <c r="R7">
-        <v>1841.777158823859</v>
-      </c>
-      <c r="S7">
-        <v>0.06450205301351841</v>
-      </c>
-      <c r="T7">
-        <v>0.06450205301351841</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H31">
+        <v>136.651993</v>
+      </c>
+      <c r="I31">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J31">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>46.29128866666667</v>
+      </c>
+      <c r="N31">
+        <v>138.873866</v>
+      </c>
+      <c r="O31">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="P31">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="Q31">
+        <v>2108.598951612771</v>
+      </c>
+      <c r="R31">
+        <v>18977.39056451494</v>
+      </c>
+      <c r="S31">
+        <v>0.05793768175056714</v>
+      </c>
+      <c r="T31">
+        <v>0.05793768175056714</v>
       </c>
     </row>
   </sheetData>
